--- a/TestCase Repository Test.xlsx
+++ b/TestCase Repository Test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Test Case</t>
   </si>
@@ -148,6 +148,9 @@
  "voucher_type":"G",
  "voucher_refID": #random_string
 }</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -532,7 +535,7 @@
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,6 +613,9 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:30" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -637,7 +643,9 @@
         <v>34</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>

--- a/TestCase Repository Test.xlsx
+++ b/TestCase Repository Test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Test Case</t>
   </si>
@@ -109,35 +109,6 @@
 "status": "success", 
 "message": "Voucher created Successfully", 
 "voucher_refID": "VRef1447848960410933" 
-}</t>
-  </si>
-  <si>
-    <t>TC04</t>
-  </si>
-  <si>
-    <t>WalletRegistration</t>
-  </si>
-  <si>
-    <t>P_WalletRegister</t>
-  </si>
-  <si>
-    <t>Create new customer- All valid details</t>
-  </si>
-  <si>
-    <t>/wallet/v1/customers/create</t>
-  </si>
-  <si>
-    <t>{ 
-"mobileNo":#new_mobNo, 
-"email":#new_email_id,
-"name_of_customer":"TestUser"
-}</t>
-  </si>
-  <si>
-    <t>{
-"status": "success",
-"status_msg": "Customer created successfully",
-"consumer_id": 123
 }</t>
   </si>
   <si>
@@ -172,7 +143,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,12 +153,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -214,9 +179,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +512,7 @@
     <col min="9" max="9" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -588,7 +550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -608,64 +570,14 @@
         <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="72.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
